--- a/biology/Botanique/Voie_de_la_Dombes/Voie_de_la_Dombes.xlsx
+++ b/biology/Botanique/Voie_de_la_Dombes/Voie_de_la_Dombes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 La voie de la Dombes est une voie verte c'est-à-dire à la fois un chemin de randonnée, une piste cyclable et un espace vert. Elle emprunte le tracé de la Ligne de Lyon-Croix-Rousse à Trévoux désaffectée. Elle traverse Caluire-et-Cuire pour aboutir à Sathonay-Camp.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La voie de la dombes qui mesure 5 km[1], traverse ou longe plusieurs quartiers de Caluire-et-Cuire[2] : son point d'origine (45° 47′ 19″ N, 4° 50′ 15″ E) est dans Cuire-le-Haut. Après Cuire-le-Haut, la voie forme la frontière entre Montessuy et Le Bourg ; ensuite, au niveau de Vassieux, elle bifurque en traversant le quartier du Le Vernay. Son point d'arrivée (45° 48′ 54″ N, 4° 52′ 01″ E) se trouve à l'orée de Sathonay-Camp, au niveau du Boulevard des oiseaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La voie de la dombes qui mesure 5 km, traverse ou longe plusieurs quartiers de Caluire-et-Cuire : son point d'origine (45° 47′ 19″ N, 4° 50′ 15″ E) est dans Cuire-le-Haut. Après Cuire-le-Haut, la voie forme la frontière entre Montessuy et Le Bourg ; ensuite, au niveau de Vassieux, elle bifurque en traversant le quartier du Le Vernay. Son point d'arrivée (45° 48′ 54″ N, 4° 52′ 01″ E) se trouve à l'orée de Sathonay-Camp, au niveau du Boulevard des oiseaux.
 Elle emprunte la plate-forme de la section Croix-Rousse - Sathonay de la ligne Lyon-Croix-Rousse - Trévoux ; d'un point de vue ferroviaire, cette section a été définitivement fermée le 28 septembre 1975.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie verte aménagée par le conseil général du Rhône dans les années 1990[réf. nécessaire], utilise le nom de « Dombes » en référence à la région naturelle de l'Ain, la Dombes. En effet, la ligne Lyon-Croix-Rousse - Trévoux se terminaient à Trévoux, ville située en Dombes où se trouve d'ailleurs l'ancien palais du parlement de Dombes.
 </t>
